--- a/VietTravelClient/VietTravelClient/wwwroot/ReportExcelTemp/Bao_cao_thong_ke_doanh_thu_theo_thanh_pho.xlsx
+++ b/VietTravelClient/VietTravelClient/wwwroot/ReportExcelTemp/Bao_cao_thong_ke_doanh_thu_theo_thanh_pho.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProject\ReportExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProject\VietTravelClientDev\VietTravelClient\VietTravelClient\wwwroot\ReportExcelTemp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CE67FC8-357B-4E6C-9E63-B9DA73D47580}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41E1E40-A7E4-4F6F-A65B-CCE285CF321C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{EB8E4927-244E-44C8-936E-5BA7EDA58DCE}"/>
   </bookViews>
@@ -30,13 +30,13 @@
     <t>STT</t>
   </si>
   <si>
-    <t>Tháng</t>
-  </si>
-  <si>
     <t xml:space="preserve">Doanh thu </t>
   </si>
   <si>
-    <t>THỐNG KÊ DOANH THU THEO THÁNG</t>
+    <t>THỐNG KÊ DOANH THU THEO THÀNH PHỐ</t>
+  </si>
+  <si>
+    <t>Thành phố</t>
   </si>
 </sst>
 </file>
@@ -103,11 +103,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -427,7 +427,7 @@
   <dimension ref="B2:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -438,26 +438,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/VietTravelClient/VietTravelClient/wwwroot/ReportExcelTemp/Bao_cao_thong_ke_doanh_thu_theo_thanh_pho.xlsx
+++ b/VietTravelClient/VietTravelClient/wwwroot/ReportExcelTemp/Bao_cao_thong_ke_doanh_thu_theo_thanh_pho.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProject\ReportExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProject\VietTravelClientNewDb\VietTravelClient\VietTravelClient\wwwroot\ReportExcelTemp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CE67FC8-357B-4E6C-9E63-B9DA73D47580}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11625A21-F8EB-40C1-B207-CA47FF6D948C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{EB8E4927-244E-44C8-936E-5BA7EDA58DCE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
     <t xml:space="preserve">Doanh thu </t>
   </si>
   <si>
-    <t>THỐNG KÊ DOANH THU THEO THÁNG</t>
+    <t>THỐNG KÊ DOANH THU THEO THÀNH PHỐ</t>
   </si>
 </sst>
 </file>
@@ -103,11 +103,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -427,7 +427,7 @@
   <dimension ref="B2:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -438,25 +438,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
